--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="42">
   <si>
     <t>-</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
   </si>
   <si>
     <t>1€</t>
-  </si>
-  <si>
-    <t>Bi-Metallic</t>
   </si>
   <si>
     <t>2€</t>
@@ -460,6 +451,33 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Obv: Alpine gentian</t>
+  </si>
+  <si>
+    <t>Obv: Alpine edelweiss</t>
+  </si>
+  <si>
+    <t>Obv: Alpine primrose</t>
+  </si>
+  <si>
+    <t>Obv: St. Stephen's Cathedral</t>
+  </si>
+  <si>
+    <t>Obv: Belvedere Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Secession hall </t>
+  </si>
+  <si>
+    <t>Obv: Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>Obv: Bertha von Suttner</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -632,13 +650,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1165,11 +1201,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1198,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1224,9 +1260,11 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
         <v>378510000</v>
@@ -1245,9 +1283,11 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <v>10950000</v>
@@ -1266,9 +1306,11 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
         <v>115120000</v>
@@ -1286,9 +1328,11 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
         <v>174820000</v>
@@ -1306,9 +1350,11 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <v>48420000</v>
@@ -1326,9 +1372,11 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
         <v>111995000</v>
@@ -1346,9 +1394,11 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
         <v>50965000</v>
@@ -1366,9 +1416,11 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
         <v>158991000</v>
@@ -1386,9 +1438,11 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
         <v>168565000</v>
@@ -1406,9 +1460,11 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
         <v>189665000</v>
@@ -1426,9 +1482,11 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
         <v>169360000</v>
@@ -1446,9 +1504,11 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
         <v>179260000</v>
@@ -1466,9 +1526,11 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
         <v>185560000</v>
@@ -1486,9 +1548,11 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
         <v>118060000</v>
@@ -1506,12 +1570,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1526,9 +1592,11 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
         <v>37760000</v>
@@ -1546,12 +1614,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1566,9 +1636,11 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="3">
@@ -1631,7 +1703,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1660,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1686,9 +1758,11 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <v>326510000</v>
@@ -1707,9 +1781,11 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
         <v>118650000</v>
@@ -1728,9 +1804,11 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
         <v>156520000</v>
@@ -1748,9 +1826,11 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
         <v>163320000</v>
@@ -1768,9 +1848,11 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
         <v>39920000</v>
@@ -1788,9 +1870,11 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
         <v>72295000</v>
@@ -1808,9 +1892,11 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
         <v>125165000</v>
@@ -1828,9 +1914,11 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
         <v>120491000</v>
@@ -1848,9 +1936,11 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
         <v>104265000</v>
@@ -1868,9 +1958,11 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
         <v>148665000</v>
@@ -1888,9 +1980,11 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
         <v>78160000</v>
@@ -1908,9 +2002,11 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
         <v>121560000</v>
@@ -1928,9 +2024,11 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
         <v>116160000</v>
@@ -1948,9 +2046,11 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
         <v>45460000</v>
@@ -1968,12 +2068,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1988,9 +2090,11 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
         <v>57260000</v>
@@ -2008,12 +2112,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2028,9 +2134,11 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="3">
@@ -2093,7 +2201,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2122,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2148,9 +2256,11 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <v>217110000</v>
@@ -2169,9 +2279,11 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
         <v>108650000</v>
@@ -2190,9 +2302,11 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
         <v>89420000</v>
@@ -2210,9 +2324,11 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
         <v>66220000</v>
@@ -2230,9 +2346,11 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
         <v>5720000</v>
@@ -2250,9 +2368,11 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
         <v>52795000</v>
@@ -2270,9 +2390,11 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
         <v>96765000</v>
@@ -2290,9 +2412,11 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
         <v>5891000</v>
@@ -2310,9 +2434,11 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
         <v>63765000</v>
@@ -2330,9 +2456,11 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
         <v>66665000</v>
@@ -2350,9 +2478,11 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
         <v>35360000</v>
@@ -2370,9 +2500,11 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
         <v>36160000</v>
@@ -2390,9 +2522,11 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
         <v>48060000</v>
@@ -2410,9 +2544,11 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
         <v>61060000</v>
@@ -2430,12 +2566,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2450,9 +2588,11 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
         <v>35260000</v>
@@ -2470,12 +2610,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2490,9 +2632,11 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="3">
@@ -2555,7 +2699,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2584,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2609,13 +2753,15 @@
       <c r="A3" s="12">
         <v>2002</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="8">
         <v>441710000</v>
       </c>
@@ -2632,15 +2778,17 @@
       <c r="A4" s="12">
         <v>2003</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="B4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2655,13 +2803,15 @@
       <c r="A5" s="12">
         <v>2004</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8">
         <v>5320000</v>
       </c>
@@ -2677,13 +2827,15 @@
       <c r="A6" s="12">
         <v>2005</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="8">
         <v>5320000</v>
       </c>
@@ -2699,13 +2851,15 @@
       <c r="A7" s="12">
         <v>2006</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="8">
         <v>40120000</v>
       </c>
@@ -2721,13 +2875,15 @@
       <c r="A8" s="12">
         <v>2007</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="8">
         <v>81395000</v>
       </c>
@@ -2743,13 +2899,15 @@
       <c r="A9" s="12">
         <v>2008</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="8">
         <v>70265000</v>
       </c>
@@ -2765,13 +2923,15 @@
       <c r="A10" s="12">
         <v>2009</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="8">
         <v>15991000</v>
       </c>
@@ -2787,13 +2947,15 @@
       <c r="A11" s="12">
         <v>2010</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="8">
         <v>42865000</v>
       </c>
@@ -2809,13 +2971,15 @@
       <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="8">
         <v>27665000</v>
       </c>
@@ -2831,13 +2995,15 @@
       <c r="A13" s="12">
         <v>2012</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="8">
         <v>25060000</v>
       </c>
@@ -2853,13 +3019,15 @@
       <c r="A14" s="12">
         <v>2013</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="8">
         <v>30160000</v>
       </c>
@@ -2875,13 +3043,15 @@
       <c r="A15" s="12">
         <v>2014</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="B15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="8">
         <v>27660000</v>
       </c>
@@ -2897,13 +3067,15 @@
       <c r="A16" s="12">
         <v>2015</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="8">
         <v>63160000</v>
       </c>
@@ -2919,13 +3091,15 @@
       <c r="A17" s="12">
         <v>2016</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="8">
         <v>12360000</v>
       </c>
@@ -2941,13 +3115,15 @@
       <c r="A18" s="12">
         <v>2017</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="8">
         <v>39560000</v>
       </c>
@@ -2963,15 +3139,17 @@
       <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="B19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2985,13 +3163,15 @@
       <c r="A20" s="12">
         <v>2019</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="3">
         <v>0</v>
@@ -3053,7 +3233,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3082,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3108,12 +3288,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="8">
         <v>203510000</v>
       </c>
@@ -3131,12 +3313,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="15">
         <v>51050000</v>
       </c>
@@ -3154,12 +3338,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8">
         <v>54920000</v>
       </c>
@@ -3176,12 +3362,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="8">
         <v>4220000</v>
       </c>
@@ -3198,12 +3386,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="8">
         <v>8320000</v>
       </c>
@@ -3220,12 +3410,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="8">
         <v>45095000</v>
       </c>
@@ -3242,12 +3434,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="8">
         <v>45365000</v>
       </c>
@@ -3264,12 +3458,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="8">
         <v>49891000</v>
       </c>
@@ -3286,12 +3482,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="8">
         <v>4265000</v>
       </c>
@@ -3308,12 +3506,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="8">
         <v>21365000</v>
       </c>
@@ -3330,12 +3530,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="8">
         <v>10860000</v>
       </c>
@@ -3352,12 +3554,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="8">
         <v>25260000</v>
       </c>
@@ -3374,12 +3578,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="8">
         <v>10560000</v>
       </c>
@@ -3396,12 +3602,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="8">
         <v>9060000</v>
       </c>
@@ -3418,12 +3626,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="8">
         <v>30060000</v>
       </c>
@@ -3440,12 +3650,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="8">
         <v>30060000</v>
       </c>
@@ -3462,14 +3674,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3484,12 +3698,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="3">
         <v>0</v>
@@ -3551,7 +3767,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3580,7 +3796,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3606,12 +3822,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="8">
         <v>169210000</v>
       </c>
@@ -3629,12 +3847,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="8">
         <v>9250000</v>
       </c>
@@ -3652,12 +3872,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8">
         <v>3220000</v>
       </c>
@@ -3674,12 +3896,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="8">
         <v>3220000</v>
       </c>
@@ -3696,12 +3920,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="8">
         <v>3320000</v>
       </c>
@@ -3718,12 +3944,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="8">
         <v>3095000</v>
       </c>
@@ -3740,12 +3968,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="8">
         <v>3065000</v>
       </c>
@@ -3762,12 +3992,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="8">
         <v>14791000</v>
       </c>
@@ -3784,12 +4016,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="8">
         <v>30065000</v>
       </c>
@@ -3806,12 +4040,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="8">
         <v>6065000</v>
       </c>
@@ -3828,14 +4064,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3850,14 +4088,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3872,14 +4112,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3894,14 +4136,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3916,12 +4160,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="8">
         <v>5060000</v>
       </c>
@@ -3938,12 +4184,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="8">
         <v>15060000</v>
       </c>
@@ -3960,14 +4208,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3982,12 +4232,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="3">
         <v>0</v>
@@ -4049,7 +4301,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4078,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4104,12 +4356,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="15">
         <v>223610000</v>
       </c>
@@ -4127,12 +4381,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="15">
         <v>300000</v>
       </c>
@@ -4151,12 +4407,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="15">
         <v>2720000</v>
       </c>
@@ -4173,12 +4431,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="15">
         <v>2720000</v>
       </c>
@@ -4195,12 +4455,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="15">
         <v>7820000</v>
       </c>
@@ -4217,12 +4479,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="15">
         <v>41195000</v>
       </c>
@@ -4239,12 +4503,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="15">
         <v>65565000</v>
       </c>
@@ -4261,12 +4527,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="15">
         <v>40391000</v>
       </c>
@@ -4283,12 +4551,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="15">
         <v>11265000</v>
       </c>
@@ -4305,12 +4575,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="15">
         <v>8065000</v>
       </c>
@@ -4327,14 +4599,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4349,14 +4623,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4371,14 +4647,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4393,14 +4671,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4415,12 +4695,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="15">
         <v>5260000</v>
       </c>
@@ -4437,12 +4719,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="15">
         <v>8060000</v>
       </c>
@@ -4459,14 +4743,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -4481,12 +4767,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="3">
         <v>0</v>
@@ -4548,7 +4836,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4577,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4603,12 +4891,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="15">
         <v>196510000</v>
       </c>
@@ -4626,12 +4916,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="15">
         <v>4850000</v>
       </c>
@@ -4650,12 +4942,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="15">
         <v>2620000</v>
       </c>
@@ -4696,12 +4990,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="15">
         <v>2420000</v>
       </c>
@@ -4742,12 +5038,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="15">
         <v>2665000</v>
       </c>
@@ -4788,12 +5086,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="15">
         <v>17065000</v>
       </c>
@@ -4810,12 +5110,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="15">
         <v>27765000</v>
       </c>
@@ -4832,12 +5134,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="15">
         <v>21200000</v>
       </c>
@@ -4854,12 +5158,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="15">
         <v>10160000</v>
       </c>
@@ -4876,12 +5182,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="15">
         <v>20160000</v>
       </c>
@@ -4898,12 +5206,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="15">
         <v>12360000</v>
       </c>
@@ -4944,12 +5254,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="15">
         <v>17760000</v>
       </c>
@@ -4990,12 +5302,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="3">
         <v>0</v>
@@ -5053,11 +5367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5069,13 +5383,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5083,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5094,10 +5408,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5105,10 +5419,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5116,10 +5430,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5127,10 +5441,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5138,10 +5452,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -738,6 +738,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,9 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1201,35 +1201,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1238,9 +1238,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1255,14 +1255,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="14"/>
@@ -1278,14 +1278,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="14"/>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="14"/>
@@ -1323,14 +1323,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="14"/>
@@ -1345,14 +1345,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14"/>
@@ -1367,14 +1367,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="14"/>
@@ -1389,14 +1389,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="14"/>
@@ -1411,14 +1411,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="14"/>
@@ -1433,14 +1433,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="14"/>
@@ -1455,14 +1455,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="14"/>
@@ -1477,14 +1477,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="14"/>
@@ -1499,14 +1499,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="14"/>
@@ -1521,14 +1521,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="14"/>
@@ -1543,14 +1543,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="14"/>
@@ -1565,14 +1565,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="14"/>
@@ -1587,14 +1587,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="14"/>
@@ -1609,14 +1609,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="14"/>
@@ -1631,14 +1631,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="14"/>
@@ -1706,28 +1706,28 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1736,9 +1736,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1753,14 +1753,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="7"/>
@@ -1776,14 +1776,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7"/>
@@ -1799,14 +1799,14 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7"/>
@@ -1821,14 +1821,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7"/>
@@ -1843,14 +1843,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7"/>
@@ -1865,14 +1865,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7"/>
@@ -1887,14 +1887,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7"/>
@@ -1909,14 +1909,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7"/>
@@ -1931,14 +1931,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7"/>
@@ -1953,14 +1953,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7"/>
@@ -1975,14 +1975,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7"/>
@@ -1997,14 +1997,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7"/>
@@ -2019,14 +2019,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7"/>
@@ -2041,14 +2041,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7"/>
@@ -2063,14 +2063,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="7"/>
@@ -2085,14 +2085,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7"/>
@@ -2107,14 +2107,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7"/>
@@ -2129,14 +2129,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7"/>
@@ -2204,28 +2204,28 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -2234,9 +2234,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2251,14 +2251,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="7"/>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7"/>
@@ -2297,14 +2297,14 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7"/>
@@ -2319,14 +2319,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7"/>
@@ -2341,14 +2341,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7"/>
@@ -2363,14 +2363,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7"/>
@@ -2385,14 +2385,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7"/>
@@ -2407,14 +2407,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7"/>
@@ -2429,14 +2429,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7"/>
@@ -2451,14 +2451,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7"/>
@@ -2473,14 +2473,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7"/>
@@ -2495,14 +2495,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7"/>
@@ -2517,14 +2517,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7"/>
@@ -2539,14 +2539,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7"/>
@@ -2561,14 +2561,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="7"/>
@@ -2583,14 +2583,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7"/>
@@ -2605,14 +2605,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7"/>
@@ -2627,14 +2627,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7"/>
@@ -2702,28 +2702,28 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -2732,9 +2732,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2749,14 +2749,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -2774,14 +2774,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2799,14 +2799,14 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -2823,14 +2823,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2847,14 +2847,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -2871,14 +2871,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2895,14 +2895,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2919,14 +2919,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2943,14 +2943,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2967,14 +2967,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -2991,14 +2991,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3015,14 +3015,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -3039,14 +3039,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -3063,14 +3063,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -3087,14 +3087,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3111,14 +3111,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3135,14 +3135,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3159,14 +3159,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -3236,28 +3236,28 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -3266,9 +3266,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3283,14 +3283,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3308,14 +3308,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3333,14 +3333,14 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -3357,14 +3357,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -3381,14 +3381,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -3405,14 +3405,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -3429,14 +3429,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -3453,14 +3453,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -3477,14 +3477,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -3501,14 +3501,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -3525,14 +3525,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3549,14 +3549,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -3573,14 +3573,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -3597,14 +3597,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -3621,14 +3621,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3645,14 +3645,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3669,14 +3669,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3693,14 +3693,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -3763,35 +3763,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -3800,9 +3800,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3817,14 +3817,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3842,14 +3842,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3867,14 +3867,14 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -3891,14 +3891,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -3915,14 +3915,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -3939,14 +3939,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -3963,14 +3963,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -3987,14 +3987,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -4011,14 +4011,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -4028,21 +4028,21 @@
         <v>30065000</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -4059,14 +4059,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -4083,14 +4083,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -4107,14 +4107,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -4131,14 +4131,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -4155,14 +4155,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -4179,14 +4179,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -4203,14 +4203,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -4227,14 +4227,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -4304,28 +4304,28 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -4334,9 +4334,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4351,14 +4351,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4402,14 +4402,14 @@
       <c r="H4" s="16"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -4426,14 +4426,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -4450,14 +4450,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4474,14 +4474,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -4498,14 +4498,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -4522,14 +4522,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -4546,14 +4546,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -4570,14 +4570,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -4594,14 +4594,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -4618,14 +4618,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -4642,14 +4642,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -4666,14 +4666,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -4690,14 +4690,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -4714,14 +4714,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -4738,14 +4738,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -4762,14 +4762,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -4839,28 +4839,28 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -4869,9 +4869,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4886,14 +4886,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -4911,14 +4911,14 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -4937,14 +4937,14 @@
       <c r="H4" s="16"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -4961,7 +4961,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -4985,14 +4985,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -5009,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -5033,14 +5033,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -5057,7 +5057,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -5081,14 +5081,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -5105,14 +5105,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -5129,14 +5129,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -5153,14 +5153,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -5177,14 +5177,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -5201,14 +5201,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -5225,7 +5225,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -5249,14 +5249,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -5273,7 +5273,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -5297,14 +5297,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -5374,14 +5374,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E486CB-DC50-46CD-B368-DE34926F902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,12 +73,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -112,12 +113,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,12 +153,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -192,12 +193,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -232,12 +233,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -272,12 +273,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -312,12 +313,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -352,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="67">
   <si>
     <t>-</t>
   </si>
@@ -381,9 +382,6 @@
     <t>1cent</t>
   </si>
   <si>
-    <t>Only BU or Proof</t>
-  </si>
-  <si>
     <t>2cents</t>
   </si>
   <si>
@@ -478,13 +476,91 @@
   </si>
   <si>
     <t>Obv: Bertha von Suttner</t>
+  </si>
+  <si>
+    <t>60.000</t>
+  </si>
+  <si>
+    <t>85.560.000</t>
+  </si>
+  <si>
+    <t>130.960.000</t>
+  </si>
+  <si>
+    <t>57.360.000</t>
+  </si>
+  <si>
+    <t>91.260.000</t>
+  </si>
+  <si>
+    <t>15.060.000</t>
+  </si>
+  <si>
+    <t>5.660.000</t>
+  </si>
+  <si>
+    <t>12.160.000</t>
+  </si>
+  <si>
+    <t>15.160.000</t>
+  </si>
+  <si>
+    <t>25.660.000</t>
+  </si>
+  <si>
+    <t>19.860.000</t>
+  </si>
+  <si>
+    <t>2.860.000</t>
+  </si>
+  <si>
+    <t>14.960.000</t>
+  </si>
+  <si>
+    <t>2.760.000</t>
+  </si>
+  <si>
+    <t>4.060.000</t>
+  </si>
+  <si>
+    <t>15.860.000</t>
+  </si>
+  <si>
+    <t>12.760.000</t>
+  </si>
+  <si>
+    <t>138.560.000</t>
+  </si>
+  <si>
+    <t>85.710.000</t>
+  </si>
+  <si>
+    <t>22.660.000</t>
+  </si>
+  <si>
+    <t>170.100</t>
+  </si>
+  <si>
+    <t>30.260.000</t>
+  </si>
+  <si>
+    <t>20.460.000</t>
+  </si>
+  <si>
+    <t>17.160.000</t>
+  </si>
+  <si>
+    <t>305.100</t>
+  </si>
+  <si>
+    <t>5.160.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,6 +605,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -671,7 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,13 +843,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -921,16 +1094,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="11" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1198,14 +1371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1260,10 +1433,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -1283,10 +1456,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
@@ -1306,10 +1479,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -1328,10 +1501,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -1350,10 +1523,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -1372,10 +1545,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
@@ -1394,10 +1567,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -1416,10 +1589,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
@@ -1438,10 +1611,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
@@ -1460,10 +1633,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
@@ -1482,10 +1655,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
@@ -1504,10 +1677,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
@@ -1526,10 +1699,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -1548,10 +1721,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
@@ -1570,14 +1743,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
+      <c r="E17" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1592,10 +1765,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
@@ -1614,16 +1787,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -1636,18 +1809,42 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1658,10 +1855,10 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1673,11 +1870,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1696,14 +1908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1758,10 +1970,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
@@ -1771,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
@@ -1781,10 +1993,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
@@ -1804,10 +2016,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
@@ -1826,10 +2038,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
@@ -1848,10 +2060,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
@@ -1870,10 +2082,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
@@ -1892,10 +2104,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
@@ -1914,10 +2126,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
@@ -1936,10 +2148,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
@@ -1958,10 +2170,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
@@ -1980,10 +2192,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
@@ -2002,10 +2214,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
@@ -2024,10 +2236,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
@@ -2046,10 +2258,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
@@ -2068,14 +2280,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
+      <c r="E17" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2090,10 +2302,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
@@ -2112,16 +2324,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -2134,17 +2346,41 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2156,10 +2392,10 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2171,11 +2407,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2194,14 +2445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2230,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2256,10 +2507,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
@@ -2269,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
@@ -2279,10 +2530,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
@@ -2302,10 +2553,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
@@ -2324,10 +2575,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
@@ -2346,10 +2597,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
@@ -2368,10 +2619,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
@@ -2390,10 +2641,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
@@ -2412,10 +2663,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
@@ -2434,10 +2685,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
@@ -2456,10 +2707,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
@@ -2478,10 +2729,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
@@ -2500,10 +2751,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
@@ -2522,10 +2773,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
@@ -2544,10 +2795,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
@@ -2566,14 +2817,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
+      <c r="E17" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2588,10 +2839,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
@@ -2610,16 +2861,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -2632,17 +2883,41 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2654,10 +2929,10 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2669,11 +2944,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2692,14 +2982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2728,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2754,13 +3044,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8">
         <v>441710000</v>
@@ -2769,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
@@ -2779,16 +3069,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2804,13 +3094,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8">
         <v>5320000</v>
@@ -2828,13 +3118,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8">
         <v>5320000</v>
@@ -2852,13 +3142,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8">
         <v>40120000</v>
@@ -2876,13 +3166,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8">
         <v>81395000</v>
@@ -2900,13 +3190,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8">
         <v>70265000</v>
@@ -2924,13 +3214,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8">
         <v>15991000</v>
@@ -2948,13 +3238,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8">
         <v>42865000</v>
@@ -2972,13 +3262,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8">
         <v>27665000</v>
@@ -2996,13 +3286,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="8">
         <v>25060000</v>
@@ -3020,13 +3310,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="8">
         <v>30160000</v>
@@ -3044,13 +3334,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="8">
         <v>27660000</v>
@@ -3068,13 +3358,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8">
         <v>63160000</v>
@@ -3092,13 +3382,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8">
         <v>12360000</v>
@@ -3116,13 +3406,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8">
         <v>39560000</v>
@@ -3140,18 +3430,18 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -3164,19 +3454,45 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3187,11 +3503,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3203,11 +3520,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3226,14 +3558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3262,7 +3594,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3288,13 +3620,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8">
         <v>203510000</v>
@@ -3303,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
@@ -3313,13 +3645,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="15">
         <v>51050000</v>
@@ -3338,13 +3670,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8">
         <v>54920000</v>
@@ -3362,13 +3694,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8">
         <v>4220000</v>
@@ -3386,13 +3718,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8">
         <v>8320000</v>
@@ -3410,13 +3742,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8">
         <v>45095000</v>
@@ -3434,13 +3766,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8">
         <v>45365000</v>
@@ -3458,13 +3790,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8">
         <v>49891000</v>
@@ -3482,13 +3814,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8">
         <v>4265000</v>
@@ -3506,13 +3838,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8">
         <v>21365000</v>
@@ -3530,13 +3862,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="8">
         <v>10860000</v>
@@ -3554,13 +3886,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="8">
         <v>25260000</v>
@@ -3578,13 +3910,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="8">
         <v>10560000</v>
@@ -3602,13 +3934,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8">
         <v>9060000</v>
@@ -3626,13 +3958,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8">
         <v>30060000</v>
@@ -3650,13 +3982,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8">
         <v>30060000</v>
@@ -3674,22 +4006,22 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G19" si="1">IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3698,19 +4030,45 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3722,9 +4080,26 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3736,12 +4111,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3760,14 +4150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3796,7 +4186,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3822,13 +4212,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8">
         <v>169210000</v>
@@ -3837,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
@@ -3847,13 +4237,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8">
         <v>9250000</v>
@@ -3872,13 +4262,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8">
         <v>3220000</v>
@@ -3896,13 +4286,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8">
         <v>3220000</v>
@@ -3920,13 +4310,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8">
         <v>3320000</v>
@@ -3944,13 +4334,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8">
         <v>3095000</v>
@@ -3968,13 +4358,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8">
         <v>3065000</v>
@@ -3992,13 +4382,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8">
         <v>14791000</v>
@@ -4016,13 +4406,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8">
         <v>30065000</v>
@@ -4040,13 +4430,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8">
         <v>6065000</v>
@@ -4064,16 +4454,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4088,16 +4478,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4112,16 +4502,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4136,16 +4526,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4160,13 +4550,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8">
         <v>5060000</v>
@@ -4184,13 +4574,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8">
         <v>15060000</v>
@@ -4208,22 +4598,22 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G19" si="1">IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4232,19 +4622,45 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4256,10 +4672,10 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4271,11 +4687,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4294,14 +4725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4356,13 +4787,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="15">
         <v>223610000</v>
@@ -4371,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="I3" s="6"/>
@@ -4381,16 +4812,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15">
-        <v>300000</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -4407,13 +4838,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="15">
         <v>2720000</v>
@@ -4431,13 +4862,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="15">
         <v>2720000</v>
@@ -4455,13 +4886,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="15">
         <v>7820000</v>
@@ -4479,13 +4910,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="15">
         <v>41195000</v>
@@ -4503,13 +4934,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="15">
         <v>65565000</v>
@@ -4527,13 +4958,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="15">
         <v>40391000</v>
@@ -4551,13 +4982,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="15">
         <v>11265000</v>
@@ -4575,13 +5006,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="15">
         <v>8065000</v>
@@ -4599,16 +5030,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4623,16 +5054,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4647,16 +5078,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4671,16 +5102,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4695,13 +5126,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="15">
         <v>5260000</v>
@@ -4719,13 +5150,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="15">
         <v>8060000</v>
@@ -4743,18 +5174,18 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -4767,19 +5198,45 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4791,9 +5248,26 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4805,12 +5279,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4829,14 +5301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4865,7 +5337,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4891,13 +5363,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="15">
         <v>196510000</v>
@@ -4906,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
@@ -4916,13 +5388,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="15">
         <v>4850000</v>
@@ -4942,13 +5414,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="15">
         <v>2620000</v>
@@ -4990,13 +5462,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="15">
         <v>2420000</v>
@@ -5038,13 +5510,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="15">
         <v>2665000</v>
@@ -5086,13 +5558,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="15">
         <v>17065000</v>
@@ -5110,13 +5582,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="15">
         <v>27765000</v>
@@ -5134,13 +5606,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="15">
         <v>21200000</v>
@@ -5158,13 +5630,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="15">
         <v>10160000</v>
@@ -5182,13 +5654,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="15">
         <v>20160000</v>
@@ -5206,13 +5678,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="15">
         <v>12360000</v>
@@ -5254,13 +5726,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="15">
         <v>17760000</v>
@@ -5302,19 +5774,45 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5326,9 +5824,26 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5340,12 +5855,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5364,14 +5877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5383,13 +5896,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5408,10 +5921,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5419,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,10 +5943,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,10 +5954,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5452,20 +5965,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E486CB-DC50-46CD-B368-DE34926F902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0994B0-B990-49E4-86CE-46ABA3C9D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="88">
   <si>
     <t>-</t>
   </si>
@@ -554,13 +563,76 @@
   </si>
   <si>
     <t>5.160.000</t>
+  </si>
+  <si>
+    <t>38.360.000</t>
+  </si>
+  <si>
+    <t>36.160.000</t>
+  </si>
+  <si>
+    <t>9.060.000</t>
+  </si>
+  <si>
+    <t>73.460.000</t>
+  </si>
+  <si>
+    <t>64.660.000</t>
+  </si>
+  <si>
+    <t>20.260.000</t>
+  </si>
+  <si>
+    <t>21.060.000</t>
+  </si>
+  <si>
+    <t>7.460.000</t>
+  </si>
+  <si>
+    <t>5.460.000</t>
+  </si>
+  <si>
+    <t>9.960.000</t>
+  </si>
+  <si>
+    <t>38.060.000</t>
+  </si>
+  <si>
+    <t>58.460.000</t>
+  </si>
+  <si>
+    <t>16.760.000</t>
+  </si>
+  <si>
+    <t>15.760.000</t>
+  </si>
+  <si>
+    <t>25.360.000</t>
+  </si>
+  <si>
+    <t>8.460.000</t>
+  </si>
+  <si>
+    <t>7.060.000</t>
+  </si>
+  <si>
+    <t>9.110.000</t>
+  </si>
+  <si>
+    <t>28.460.000</t>
+  </si>
+  <si>
+    <t>13.760.000</t>
+  </si>
+  <si>
+    <t>26.560.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -622,6 +694,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -831,6 +907,9 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,16 +922,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -860,87 +936,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1070,6 +1065,79 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1101,9 +1169,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="11" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1372,37 +1440,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1411,9 +1479,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1496,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -1451,7 +1519,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -1474,7 +1542,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -1496,7 +1564,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -1518,7 +1586,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -1540,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -1562,7 +1630,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -1584,7 +1652,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -1606,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -1628,7 +1696,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -1650,7 +1718,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -1672,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -1694,7 +1762,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -1716,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -1738,7 +1806,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -1749,7 +1817,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1760,7 +1828,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -1782,7 +1850,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -1804,7 +1872,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -1826,7 +1894,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
@@ -1844,7 +1912,73 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G21:G23" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" ref="G24" si="2">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1854,8 +1988,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -1869,12 +2004,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
+  <conditionalFormatting sqref="F3:F19 F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1886,8 +2021,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F24">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -1909,37 +2044,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1948,9 +2083,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1965,7 +2100,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -1988,7 +2123,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -2011,7 +2146,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -2033,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -2055,7 +2190,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -2077,7 +2212,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -2099,7 +2234,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -2121,7 +2256,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -2143,7 +2278,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -2165,7 +2300,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -2187,7 +2322,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -2209,7 +2344,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -2231,7 +2366,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -2253,7 +2388,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -2275,7 +2410,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -2286,7 +2421,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2297,7 +2432,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -2319,7 +2454,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -2341,7 +2476,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -2363,7 +2498,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
@@ -2382,6 +2517,72 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2391,8 +2592,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -2406,12 +2608,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
+  <conditionalFormatting sqref="F3:F19 F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2423,8 +2625,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F24">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2446,37 +2648,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -2485,9 +2687,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2704,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -2525,7 +2727,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -2548,7 +2750,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -2570,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -2592,7 +2794,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -2614,7 +2816,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -2636,7 +2838,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -2658,7 +2860,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -2680,7 +2882,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -2702,7 +2904,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -2724,7 +2926,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -2746,7 +2948,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -2768,7 +2970,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -2790,7 +2992,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -2812,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -2823,7 +3025,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2834,7 +3036,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -2856,7 +3058,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -2878,7 +3080,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -2900,7 +3102,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
@@ -2919,6 +3121,72 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2928,8 +3196,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -2943,12 +3212,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
+  <conditionalFormatting sqref="F3:F19 F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2960,8 +3229,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F24">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2983,37 +3252,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -3022,9 +3291,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3039,7 +3308,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -3064,7 +3333,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -3077,7 +3346,7 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3089,7 +3358,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -3113,7 +3382,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -3137,7 +3406,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -3161,7 +3430,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -3185,7 +3454,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -3209,7 +3478,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -3233,7 +3502,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -3257,7 +3526,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -3281,7 +3550,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -3305,7 +3574,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -3329,7 +3598,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -3353,7 +3622,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -3377,7 +3646,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -3401,7 +3670,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -3425,7 +3694,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -3449,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -3473,7 +3742,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
@@ -3494,6 +3763,78 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3504,8 +3845,8 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -3519,12 +3860,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
+  <conditionalFormatting sqref="F3:F19 F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3536,8 +3877,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F24">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3559,37 +3900,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -3598,9 +3939,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3615,7 +3956,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -3635,12 +3976,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -3665,7 +4006,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -3689,7 +4030,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -3713,7 +4054,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -3737,7 +4078,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -3761,7 +4102,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -3785,7 +4126,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -3809,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -3833,7 +4174,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -3857,7 +4198,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -3881,7 +4222,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -3905,7 +4246,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -3929,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -3953,7 +4294,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -3977,7 +4318,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -4001,7 +4342,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -4025,7 +4366,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -4049,7 +4390,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
@@ -4070,6 +4411,78 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4079,8 +4492,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4095,7 +4509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4111,8 +4525,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F24">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4126,12 +4540,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F19 F22">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F19 F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4151,37 +4565,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
@@ -4190,9 +4604,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4207,7 +4621,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -4227,12 +4641,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -4257,7 +4671,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -4281,7 +4695,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -4305,7 +4719,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -4329,7 +4743,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -4353,7 +4767,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -4377,7 +4791,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -4401,7 +4815,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -4425,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -4449,7 +4863,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -4462,7 +4876,7 @@
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4473,7 +4887,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -4486,7 +4900,7 @@
       <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4497,7 +4911,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -4510,7 +4924,7 @@
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -4521,7 +4935,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -4534,7 +4948,7 @@
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -4545,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -4569,7 +4983,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -4593,7 +5007,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -4617,7 +5031,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -4641,7 +5055,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
@@ -4662,6 +5076,78 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4671,8 +5157,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4686,12 +5173,661 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F24">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="15">
+        <v>223610000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2720000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2720000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15">
+        <v>7820000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>41195000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15">
+        <v>65565000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15">
+        <v>40391000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15">
+        <v>11265000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15">
+        <v>8065000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5260000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="15">
+        <v>8060000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F23:F24 F20">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4724,50 +5860,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I21"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4782,48 +5918,48 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15">
-        <v>223610000</v>
+        <v>196510000</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="15">
+        <v>4850000</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -4833,21 +5969,21 @@
       <c r="H4" s="16"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="15">
-        <v>2720000</v>
+        <v>2620000</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4857,23 +5993,23 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2720000</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="str">
@@ -4881,21 +6017,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="15">
-        <v>7820000</v>
+        <v>2420000</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4905,23 +6041,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15">
-        <v>41195000</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -4929,21 +6065,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="15">
-        <v>65565000</v>
+        <v>2665000</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4953,23 +6089,23 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15">
-        <v>40391000</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="str">
@@ -4977,21 +6113,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="15">
-        <v>11265000</v>
+        <v>17065000</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5001,21 +6137,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="15">
-        <v>8065000</v>
+        <v>27765000</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5025,47 +6161,47 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <v>21200000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15">
+        <v>10160000</v>
+      </c>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -5073,47 +6209,47 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15">
+        <v>20160000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15">
+        <v>12360000</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="str">
@@ -5121,23 +6257,23 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15">
-        <v>5260000</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -5145,21 +6281,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="15">
-        <v>8060000</v>
+        <v>17760000</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5169,23 +6305,23 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="B19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -5193,21 +6329,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -5217,27 +6353,99 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5247,8 +6455,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F20 F22 F24">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5263,7 +6472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5279,584 +6488,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15">
-        <v>196510000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="15">
-        <v>4850000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2620000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2420000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2665000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="15">
-        <v>17065000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15">
-        <v>27765000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15">
-        <v>21200000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="15">
-        <v>10160000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="15">
-        <v>20160000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15">
-        <v>12360000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15">
-        <v>17760000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5887,14 +6520,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
@@ -5905,7 +6538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5916,7 +6549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5927,7 +6560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -5938,7 +6571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -5949,7 +6582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -5960,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>6</v>
       </c>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0994B0-B990-49E4-86CE-46ABA3C9D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C91117-E425-4838-B211-CB3E46695928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6070" yWindow="1120" windowWidth="28800" windowHeight="17750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -373,9 +373,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>26.560.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -930,6 +930,15 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1129,15 +1138,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1169,9 +1169,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1442,11 +1442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1465,17 +1465,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1483,10 +1483,10 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -1501,10 +1501,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -1524,10 +1524,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
@@ -1547,10 +1547,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -1569,10 +1569,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -1591,10 +1591,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -1613,10 +1613,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
@@ -1635,10 +1635,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -1657,10 +1657,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
@@ -1679,10 +1679,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
@@ -1701,10 +1701,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
@@ -1723,10 +1723,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
@@ -1745,10 +1745,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
@@ -1767,10 +1767,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -1789,10 +1789,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
@@ -1811,14 +1811,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
@@ -1855,14 +1855,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1877,14 +1877,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1899,14 +1899,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1921,14 +1921,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1943,14 +1943,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1965,14 +1965,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1989,7 +1989,611 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F21">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
+        <v>326510000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8">
+        <v>118650000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8">
+        <v>156520000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8">
+        <v>163320000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8">
+        <v>39920000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
+        <v>72295000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8">
+        <v>125165000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8">
+        <v>120491000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
+        <v>104265000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8">
+        <v>148665000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
+        <v>78160000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <v>121560000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8">
+        <v>116160000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8">
+        <v>45460000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
+        <v>57260000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2021,7 +2625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2042,15 +2646,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2069,14 +2673,14 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>9</v>
@@ -2087,10 +2691,10 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -2108,11 +2712,11 @@
         <v>34</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
-        <v>326510000</v>
+        <v>217110000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2131,11 +2735,11 @@
         <v>34</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
-        <v>118650000</v>
+        <v>108650000</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2154,11 +2758,11 @@
         <v>34</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
-        <v>156520000</v>
+        <v>89420000</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2176,11 +2780,11 @@
         <v>34</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
-        <v>163320000</v>
+        <v>66220000</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2198,11 +2802,11 @@
         <v>34</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
-        <v>39920000</v>
+        <v>5720000</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2220,11 +2824,11 @@
         <v>34</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
-        <v>72295000</v>
+        <v>52795000</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2242,11 +2846,11 @@
         <v>34</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
-        <v>125165000</v>
+        <v>96765000</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2264,11 +2868,11 @@
         <v>34</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
-        <v>120491000</v>
+        <v>5891000</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2286,11 +2890,11 @@
         <v>34</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
-        <v>104265000</v>
+        <v>63765000</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2308,11 +2912,11 @@
         <v>34</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>148665000</v>
+        <v>66665000</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2330,11 +2934,11 @@
         <v>34</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
-        <v>78160000</v>
+        <v>35360000</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2352,11 +2956,11 @@
         <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
-        <v>121560000</v>
+        <v>36160000</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2374,11 +2978,11 @@
         <v>34</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
-        <v>116160000</v>
+        <v>48060000</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2396,11 +3000,11 @@
         <v>34</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
-        <v>45460000</v>
+        <v>61060000</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2418,11 +3022,11 @@
         <v>34</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2440,11 +3044,11 @@
         <v>34</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
-        <v>57260000</v>
+        <v>35260000</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2462,7 +3066,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
@@ -2484,7 +3088,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
@@ -2506,11 +3110,11 @@
         <v>34</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2528,7 +3132,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
@@ -2550,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
@@ -2572,11 +3176,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2593,7 +3197,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2625,7 +3229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2646,15 +3250,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2673,14 +3277,14 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>10</v>
@@ -2691,10 +3295,10 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -2712,11 +3316,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="8">
-        <v>217110000</v>
+        <v>441710000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2735,13 +3341,15 @@
         <v>35</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8">
-        <v>108650000</v>
-      </c>
-      <c r="F4" s="1">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -2758,11 +3366,13 @@
         <v>35</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="8">
-        <v>89420000</v>
+        <v>5320000</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2780,11 +3390,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="8">
-        <v>66220000</v>
+        <v>5320000</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2802,11 +3414,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="8">
-        <v>5720000</v>
+        <v>40120000</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2824,11 +3438,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="8">
-        <v>52795000</v>
+        <v>81395000</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2846,11 +3462,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="8">
-        <v>96765000</v>
+        <v>70265000</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2868,11 +3486,13 @@
         <v>35</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="8">
-        <v>5891000</v>
+        <v>15991000</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2890,11 +3510,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="8">
-        <v>63765000</v>
+        <v>42865000</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2912,11 +3534,13 @@
         <v>35</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="8">
-        <v>66665000</v>
+        <v>27665000</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2934,11 +3558,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="8">
-        <v>35360000</v>
+        <v>25060000</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2956,11 +3582,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="8">
-        <v>36160000</v>
+        <v>30160000</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2978,11 +3606,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="8">
-        <v>48060000</v>
+        <v>27660000</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3000,11 +3630,13 @@
         <v>35</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="8">
-        <v>61060000</v>
+        <v>63160000</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3022,13 +3654,15 @@
         <v>35</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8">
+        <v>12360000</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -3044,11 +3678,13 @@
         <v>35</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="8">
-        <v>35260000</v>
+        <v>39560000</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3066,11 +3702,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3088,11 +3726,13 @@
         <v>35</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3110,10 +3750,12 @@
         <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="3">
@@ -3132,11 +3774,13 @@
         <v>35</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="8" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3154,9 +3798,11 @@
         <v>35</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>79</v>
       </c>
@@ -3176,10 +3822,12 @@
         <v>35</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="3">
@@ -3196,8 +3844,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3229,656 +3877,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8">
-        <v>441710000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5320000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5320000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40120000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8">
-        <v>81395000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8">
-        <v>70265000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8">
-        <v>15991000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8">
-        <v>42865000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="8">
-        <v>27665000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8">
-        <v>25060000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8">
-        <v>30160000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8">
-        <v>27660000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8">
-        <v>63160000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8">
-        <v>12360000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8">
-        <v>39560000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19 F22">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19 F22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3906,7 +3906,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3925,17 +3925,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3943,10 +3943,10 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -3961,13 +3961,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="8">
         <v>203510000</v>
@@ -3986,13 +3986,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="15">
         <v>51050000</v>
@@ -4011,13 +4011,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8">
         <v>54920000</v>
@@ -4035,13 +4035,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8">
         <v>4220000</v>
@@ -4059,13 +4059,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>8320000</v>
@@ -4083,13 +4083,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8">
         <v>45095000</v>
@@ -4107,13 +4107,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8">
         <v>45365000</v>
@@ -4131,13 +4131,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8">
         <v>49891000</v>
@@ -4155,13 +4155,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
         <v>4265000</v>
@@ -4179,13 +4179,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8">
         <v>21365000</v>
@@ -4203,13 +4203,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="8">
         <v>10860000</v>
@@ -4227,13 +4227,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="8">
         <v>25260000</v>
@@ -4251,13 +4251,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="8">
         <v>10560000</v>
@@ -4275,13 +4275,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="8">
         <v>9060000</v>
@@ -4299,13 +4299,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="8">
         <v>30060000</v>
@@ -4323,13 +4323,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="8">
         <v>30060000</v>
@@ -4347,16 +4347,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4371,16 +4371,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -4395,16 +4395,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -4419,16 +4419,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4443,16 +4443,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4467,16 +4467,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4493,8 +4493,8 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23 F20">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4509,7 +4509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4525,8 +4525,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24 F21">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4541,11 +4541,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F22">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F22">
+  <conditionalFormatting sqref="F22 F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4571,7 +4571,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4590,17 +4590,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4608,10 +4608,10 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -4626,13 +4626,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="8">
         <v>169210000</v>
@@ -4651,13 +4651,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8">
         <v>9250000</v>
@@ -4676,13 +4676,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8">
         <v>3220000</v>
@@ -4700,13 +4700,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8">
         <v>3220000</v>
@@ -4724,13 +4724,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>3320000</v>
@@ -4748,13 +4748,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8">
         <v>3095000</v>
@@ -4772,13 +4772,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8">
         <v>3065000</v>
@@ -4796,13 +4796,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8">
         <v>14791000</v>
@@ -4820,13 +4820,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
         <v>30065000</v>
@@ -4844,13 +4844,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8">
         <v>6065000</v>
@@ -4868,16 +4868,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4892,16 +4892,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4916,16 +4916,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4940,16 +4940,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4964,13 +4964,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="8">
         <v>5060000</v>
@@ -4988,13 +4988,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="8">
         <v>15060000</v>
@@ -5012,16 +5012,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5036,16 +5036,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -5060,16 +5060,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -5084,16 +5084,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5108,16 +5108,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -5132,16 +5132,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -5158,11 +5158,660 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23 F20">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F21">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15">
+        <v>223610000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2720000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2720000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15">
+        <v>7820000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="15">
+        <v>41195000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15">
+        <v>65565000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15">
+        <v>40391000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <v>11265000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15">
+        <v>8065000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5260000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="15">
+        <v>8060000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F23:F24 F20">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5190,657 +5839,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15">
-        <v>223610000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2720000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2720000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15">
-        <v>7820000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15">
-        <v>41195000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15">
-        <v>65565000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15">
-        <v>40391000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="15">
-        <v>11265000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15">
-        <v>8065000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15">
-        <v>5260000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15">
-        <v>8060000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23:F24 F20">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19 F22">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19 F22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5868,7 +5868,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5887,17 +5887,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -5905,10 +5905,10 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -5923,13 +5923,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="15">
         <v>196510000</v>
@@ -5948,13 +5948,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="15">
         <v>4850000</v>
@@ -5974,13 +5974,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="15">
         <v>2620000</v>
@@ -6022,13 +6022,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="15">
         <v>2420000</v>
@@ -6070,13 +6070,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="15">
         <v>2665000</v>
@@ -6118,13 +6118,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="15">
         <v>17065000</v>
@@ -6142,13 +6142,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="15">
         <v>27765000</v>
@@ -6166,13 +6166,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="15">
         <v>21200000</v>
@@ -6190,13 +6190,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="15">
         <v>10160000</v>
@@ -6214,13 +6214,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="15">
         <v>20160000</v>
@@ -6238,13 +6238,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="15">
         <v>12360000</v>
@@ -6286,13 +6286,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="15">
         <v>17760000</v>
@@ -6334,16 +6334,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -6358,16 +6358,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -6382,16 +6382,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -6406,16 +6406,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -6430,16 +6430,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -6456,8 +6456,8 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F22 F24">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F22 F20 F24">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6472,7 +6472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6488,8 +6488,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23 F21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6529,13 +6529,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6543,10 +6543,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6554,10 +6554,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6565,10 +6565,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6576,10 +6576,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6587,10 +6587,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6598,10 +6598,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C91117-E425-4838-B211-CB3E46695928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5C7DA-7FE2-4909-8BF0-7F5497B314C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6070" yWindow="1120" windowWidth="28800" windowHeight="17750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1442,11 +1442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1511,7 +1511,7 @@
         <v>378510000</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1755,7 +1755,7 @@
         <v>179260000</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1989,7 +1989,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2021,7 +2021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2593,7 +2593,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2625,7 +2625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2650,11 +2650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2765,7 +2765,7 @@
         <v>89420000</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3197,7 +3197,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3229,7 +3229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -3845,7 +3845,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3877,7 +3877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4493,7 +4493,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -4525,7 +4525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4545,7 +4545,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F19">
+  <conditionalFormatting sqref="F19 F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5158,7 +5158,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -5190,7 +5190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -6456,7 +6456,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F22 F20 F24">
+  <conditionalFormatting sqref="F20 F22 F24">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -6488,7 +6488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5C7DA-7FE2-4909-8BF0-7F5497B314C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBFFFB-FAC9-495D-BD94-FFEF23C60067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1989,7 +1989,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2021,7 +2021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2046,11 +2046,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2161,7 +2161,7 @@
         <v>156520000</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2593,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2625,7 +2625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2650,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3197,7 +3197,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3229,7 +3229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -3845,7 +3845,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3877,7 +3877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4493,7 +4493,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -4525,7 +4525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4545,7 +4545,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F22">
+  <conditionalFormatting sqref="F22 F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5158,7 +5158,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -5190,7 +5190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -6456,7 +6456,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F22 F24">
+  <conditionalFormatting sqref="F22 F20 F24">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -6488,7 +6488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBFFFB-FAC9-495D-BD94-FFEF23C60067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA116C6-9CE8-496F-89B5-EF9AD822425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1989,7 +1989,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2021,7 +2021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2046,11 +2046,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2593,7 +2593,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2625,7 +2625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2650,11 +2650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3007,7 +3007,7 @@
         <v>61060000</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3197,7 +3197,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3229,7 +3229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -3845,7 +3845,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3877,7 +3877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4493,7 +4493,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -4525,7 +4525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4545,7 +4545,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F19">
+  <conditionalFormatting sqref="F19 F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5158,7 +5158,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F23 F20">
+  <conditionalFormatting sqref="F20 F23">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -5190,7 +5190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F21">
+  <conditionalFormatting sqref="F21 F24">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -6456,7 +6456,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F22 F20 F24">
+  <conditionalFormatting sqref="F20 F22 F24">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -6488,7 +6488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA116C6-9CE8-496F-89B5-EF9AD822425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317F6C55-459E-4204-9C4F-0246F7E2F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -362,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="89">
   <si>
     <t>-</t>
   </si>
@@ -379,12 +389,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -626,6 +630,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -698,6 +711,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -837,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,6 +924,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,51 +1460,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -1501,10 +1518,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -1524,10 +1541,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
@@ -1547,10 +1564,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -1569,10 +1586,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -1591,10 +1608,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -1613,10 +1630,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
@@ -1635,10 +1652,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -1657,10 +1674,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
@@ -1679,10 +1696,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
@@ -1701,10 +1718,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
@@ -1723,10 +1740,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
@@ -1745,10 +1762,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
@@ -1767,10 +1784,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -1789,10 +1806,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
@@ -1811,14 +1828,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1833,10 +1850,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
@@ -1855,14 +1872,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1877,14 +1894,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1899,14 +1916,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1921,14 +1938,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1943,14 +1960,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1965,14 +1982,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1983,9 +2000,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2050,47 +2067,46 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -2105,10 +2121,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
@@ -2128,10 +2144,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
@@ -2151,10 +2167,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
@@ -2173,10 +2189,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
@@ -2195,10 +2211,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
@@ -2217,10 +2233,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
@@ -2239,10 +2255,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
@@ -2261,10 +2277,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
@@ -2283,10 +2299,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
@@ -2305,10 +2321,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
@@ -2327,10 +2343,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
@@ -2349,10 +2365,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
@@ -2371,10 +2387,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
@@ -2393,10 +2409,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
@@ -2415,14 +2431,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2437,10 +2453,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
@@ -2459,14 +2475,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2481,14 +2497,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2503,14 +2519,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2525,14 +2541,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2547,14 +2563,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2569,14 +2585,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2587,9 +2603,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2650,51 +2666,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -2709,10 +2724,10 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8">
@@ -2732,10 +2747,10 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8">
@@ -2755,10 +2770,10 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8">
@@ -2777,10 +2792,10 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
@@ -2799,10 +2814,10 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
@@ -2821,10 +2836,10 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
@@ -2843,10 +2858,10 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
@@ -2865,10 +2880,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
@@ -2887,10 +2902,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
@@ -2909,10 +2924,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
@@ -2931,10 +2946,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8">
@@ -2953,10 +2968,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8">
@@ -2975,10 +2990,10 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
@@ -2997,10 +3012,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8">
@@ -3019,14 +3034,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3041,10 +3056,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
@@ -3063,14 +3078,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3085,14 +3100,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3107,14 +3122,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3129,14 +3144,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3151,14 +3166,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3173,14 +3188,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3191,9 +3206,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3258,47 +3273,46 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -3313,13 +3327,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>441710000</v>
@@ -3338,16 +3352,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3363,13 +3377,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>5320000</v>
@@ -3387,13 +3401,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8">
         <v>5320000</v>
@@ -3411,13 +3425,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>40120000</v>
@@ -3435,13 +3449,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8">
         <v>81395000</v>
@@ -3459,13 +3473,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8">
         <v>70265000</v>
@@ -3483,13 +3497,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>15991000</v>
@@ -3507,13 +3521,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="8">
         <v>42865000</v>
@@ -3531,13 +3545,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8">
         <v>27665000</v>
@@ -3555,13 +3569,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8">
         <v>25060000</v>
@@ -3579,13 +3593,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8">
         <v>30160000</v>
@@ -3603,13 +3617,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8">
         <v>27660000</v>
@@ -3627,13 +3641,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>63160000</v>
@@ -3651,13 +3665,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8">
         <v>12360000</v>
@@ -3675,13 +3689,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8">
         <v>39560000</v>
@@ -3699,16 +3713,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3723,16 +3737,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3747,16 +3761,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3771,16 +3785,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3795,16 +3809,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3819,16 +3833,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3839,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3906,47 +3920,46 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -3961,13 +3974,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>203510000</v>
@@ -3986,13 +3999,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="15">
         <v>51050000</v>
@@ -4011,13 +4024,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>54920000</v>
@@ -4035,13 +4048,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8">
         <v>4220000</v>
@@ -4059,13 +4072,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>8320000</v>
@@ -4083,13 +4096,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8">
         <v>45095000</v>
@@ -4107,13 +4120,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8">
         <v>45365000</v>
@@ -4131,13 +4144,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>49891000</v>
@@ -4155,13 +4168,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="8">
         <v>4265000</v>
@@ -4179,13 +4192,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8">
         <v>21365000</v>
@@ -4203,13 +4216,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8">
         <v>10860000</v>
@@ -4227,13 +4240,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8">
         <v>25260000</v>
@@ -4251,13 +4264,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8">
         <v>10560000</v>
@@ -4275,13 +4288,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>9060000</v>
@@ -4299,13 +4312,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8">
         <v>30060000</v>
@@ -4323,13 +4336,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8">
         <v>30060000</v>
@@ -4347,16 +4360,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4371,16 +4384,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -4395,16 +4408,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -4419,16 +4432,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4443,16 +4456,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4467,16 +4480,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4487,9 +4500,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4571,47 +4584,46 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -4626,13 +4638,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>169210000</v>
@@ -4651,13 +4663,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8">
         <v>9250000</v>
@@ -4676,13 +4688,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>3220000</v>
@@ -4700,13 +4712,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8">
         <v>3220000</v>
@@ -4724,13 +4736,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>3320000</v>
@@ -4748,13 +4760,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8">
         <v>3095000</v>
@@ -4772,13 +4784,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8">
         <v>3065000</v>
@@ -4796,13 +4808,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>14791000</v>
@@ -4820,13 +4832,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="8">
         <v>30065000</v>
@@ -4844,13 +4856,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8">
         <v>6065000</v>
@@ -4868,16 +4880,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4892,16 +4904,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4916,16 +4928,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4940,16 +4952,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4964,13 +4976,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8">
         <v>5060000</v>
@@ -4988,13 +5000,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8">
         <v>15060000</v>
@@ -5012,16 +5024,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5036,16 +5048,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -5060,16 +5072,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -5084,16 +5096,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5108,16 +5120,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -5132,16 +5144,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -5152,9 +5164,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5219,47 +5231,46 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -5274,13 +5285,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="15">
         <v>223610000</v>
@@ -5299,16 +5310,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -5325,13 +5336,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="15">
         <v>2720000</v>
@@ -5349,13 +5360,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="15">
         <v>2720000</v>
@@ -5373,13 +5384,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="15">
         <v>7820000</v>
@@ -5397,13 +5408,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="15">
         <v>41195000</v>
@@ -5421,13 +5432,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="15">
         <v>65565000</v>
@@ -5445,13 +5456,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="15">
         <v>40391000</v>
@@ -5469,13 +5480,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="15">
         <v>11265000</v>
@@ -5493,13 +5504,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15">
         <v>8065000</v>
@@ -5517,16 +5528,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -5541,16 +5552,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -5565,16 +5576,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5589,16 +5600,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -5613,13 +5624,13 @@
         <v>2016</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="15">
         <v>5260000</v>
@@ -5637,13 +5648,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="15">
         <v>8060000</v>
@@ -5661,16 +5672,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5685,16 +5696,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -5709,16 +5720,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -5733,16 +5744,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5757,16 +5768,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -5781,16 +5792,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -5801,9 +5812,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5868,47 +5879,46 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1</v>
@@ -5923,13 +5933,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="15">
         <v>196510000</v>
@@ -5948,13 +5958,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="15">
         <v>4850000</v>
@@ -5974,13 +5984,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="15">
         <v>2620000</v>
@@ -6022,13 +6032,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="15">
         <v>2420000</v>
@@ -6070,13 +6080,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="15">
         <v>2665000</v>
@@ -6118,13 +6128,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="15">
         <v>17065000</v>
@@ -6142,13 +6152,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15">
         <v>27765000</v>
@@ -6166,13 +6176,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="15">
         <v>21200000</v>
@@ -6190,13 +6200,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="15">
         <v>10160000</v>
@@ -6214,13 +6224,13 @@
         <v>2014</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="15">
         <v>20160000</v>
@@ -6238,13 +6248,13 @@
         <v>2015</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="15">
         <v>12360000</v>
@@ -6286,13 +6296,13 @@
         <v>2017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="15">
         <v>17760000</v>
@@ -6334,16 +6344,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -6358,16 +6368,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -6382,16 +6392,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -6406,16 +6416,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -6430,16 +6440,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -6450,9 +6460,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -6529,13 +6539,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6543,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6554,10 +6564,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6565,10 +6575,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6576,10 +6586,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6587,10 +6597,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6598,10 +6608,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317F6C55-459E-4204-9C4F-0246F7E2F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B345B61E-D1E8-4B86-833A-553E6FBBA208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2006,7 +2006,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2038,7 +2038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -2609,7 +2609,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -2641,7 +2641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -3212,7 +3212,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3244,7 +3244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -3859,7 +3859,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -3891,7 +3891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4506,7 +4506,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -4538,7 +4538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -4558,7 +4558,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F22">
+  <conditionalFormatting sqref="F22 F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5170,7 +5170,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F23">
+  <conditionalFormatting sqref="F23 F20">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -5202,7 +5202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F24">
+  <conditionalFormatting sqref="F24 F21">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
@@ -5227,11 +5227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5804,7 +5804,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6466,7 +6466,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F20 F22 F24">
+  <conditionalFormatting sqref="F22 F20 F24">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
@@ -6498,7 +6498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
